--- a/assets/excel/Owner Data.xlsx
+++ b/assets/excel/Owner Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>Owner ID</t>
   </si>
@@ -218,10 +218,10 @@
     <t>17A</t>
   </si>
   <si>
-    <t>SEPTIAN HARIO SETO</t>
-  </si>
-  <si>
-    <t>UNIT 17A, SCBD SUITES, JL JEND SUDIRMAN KAV 52-53, JAKARTA 12190</t>
+    <t>ELANG GRAHA PROPERTINDO PT</t>
+  </si>
+  <si>
+    <t>SCTV TOWER LOT.18, SENAYAN CITY, JL ASIA AFRIKA LOT19, JAKARTA</t>
   </si>
   <si>
     <t>Three Bed Room</t>
@@ -233,9 +233,6 @@
     <t>ELANG GRAHA PROPERTINDO  PT</t>
   </si>
   <si>
-    <t>SCTV TOWER LOT.18, SENAYAN CITY, JL ASIA AFRIKA LOT19, JAKARTA</t>
-  </si>
-  <si>
     <t>18A</t>
   </si>
   <si>
@@ -593,9 +590,6 @@
     <t>9D-1</t>
   </si>
   <si>
-    <t>CINDY</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -630,18 +624,6 @@
   </si>
   <si>
     <t>TOWER MANAGEMENT GROUP, KANTOR PUSAT INDOSAT LT. 15, JL MEDAN MERDEKA BARAT NO.21, JAKARTA PUSAT</t>
-  </si>
-  <si>
-    <t>T1234</t>
-  </si>
-  <si>
-    <t>TRISNA NUGRAHA</t>
-  </si>
-  <si>
-    <t>123ABC</t>
-  </si>
-  <si>
-    <t>TANGERANG</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1003,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E1" sqref="E1"/>
@@ -1558,7 +1540,7 @@
         <v>70</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>69</v>
@@ -1569,7 +1551,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3">
         <v>18071801</v>
@@ -1578,7 +1560,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>9</v>
@@ -1592,19 +1574,19 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3">
         <v>18071802</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>69</v>
@@ -1615,19 +1597,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3">
         <v>18071901</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>69</v>
@@ -1638,19 +1620,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3">
         <v>18071902</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>69</v>
@@ -1661,19 +1643,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -1682,19 +1664,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="3">
         <v>18072001</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>69</v>
@@ -1705,19 +1687,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="3">
         <v>18072002</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>69</v>
@@ -1728,19 +1710,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="3">
         <v>18072101</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>69</v>
@@ -1751,19 +1733,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3">
         <v>18072102</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>69</v>
@@ -1774,16 +1756,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3">
         <v>18072201</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
@@ -1797,19 +1779,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3">
         <v>18072202</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>69</v>
@@ -1820,7 +1802,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="3">
         <v>18072301</v>
@@ -1829,10 +1811,10 @@
         <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>69</v>
@@ -1843,7 +1825,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="3">
         <v>18072302</v>
@@ -1852,10 +1834,10 @@
         <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>69</v>
@@ -1866,16 +1848,16 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="3">
         <v>18072501</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>44</v>
@@ -1889,19 +1871,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3">
         <v>18072502</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>69</v>
@@ -1912,16 +1894,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="3">
         <v>18072601</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>9</v>
@@ -1935,7 +1917,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="3">
         <v>18072602</v>
@@ -1944,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>24</v>
@@ -1958,19 +1940,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="3">
         <v>18072701</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>69</v>
@@ -1981,7 +1963,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3">
         <v>18072702</v>
@@ -1990,10 +1972,10 @@
         <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>69</v>
@@ -2004,19 +1986,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="3">
         <v>18072801</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>69</v>
@@ -2027,7 +2009,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="3">
         <v>18072802</v>
@@ -2036,7 +2018,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>47</v>
@@ -2050,19 +2032,19 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="3">
         <v>18072901</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>69</v>
@@ -2073,19 +2055,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="3">
         <v>18072902</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>69</v>
@@ -2096,19 +2078,19 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="3">
         <v>18070201</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>69</v>
@@ -2119,19 +2101,19 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3">
         <v>18073001</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>69</v>
@@ -2142,19 +2124,19 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" s="3">
         <v>18073002</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>69</v>
@@ -2165,19 +2147,19 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="3">
         <v>18070301</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2170,19 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="3">
         <v>18070302</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2193,19 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="3">
         <v>18070303</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2216,19 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="3">
         <v>18070304</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2239,19 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="3">
         <v>18070501</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2262,19 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="3">
         <v>18070502</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -2303,19 +2285,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="3">
         <v>18070503</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2326,19 +2308,19 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="3">
         <v>18070504</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2331,19 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="3">
         <v>18070601</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2354,19 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="3">
         <v>18070602</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2377,19 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B60" s="3">
         <v>18070603</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2400,19 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" s="3">
         <v>18070604</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2423,19 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" s="3">
         <v>18070701</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2446,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="3">
         <v>18070702</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2469,19 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="3">
         <v>18070703</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2492,19 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" s="3">
         <v>18070704</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2515,19 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B66" s="3">
         <v>18070801</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2538,19 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" s="3">
         <v>18070802</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2561,19 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B68" s="3">
         <v>18070803</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2584,19 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3">
         <v>18070804</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2607,19 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" s="3">
         <v>18070901</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2630,19 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="3">
         <v>18070902</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2653,19 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B72" s="3">
         <v>18070903</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2676,19 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73" s="3">
         <v>18070904</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2699,19 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74" s="3">
         <v>18070904</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2722,19 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B75" s="3">
         <v>18073103</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2">
@@ -2761,19 +2743,19 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B76" s="3">
         <v>18073102</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2">
@@ -2782,19 +2764,19 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B77" s="3">
         <v>18073102</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2">
@@ -2803,46 +2785,23 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B78" s="3">
         <v>18073101</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2">
         <v>6.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="3">
-        <v>1234567</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2">
-        <v>26.3</v>
       </c>
     </row>
   </sheetData>
